--- a/Output.xlsx
+++ b/Output.xlsx
@@ -123,8 +123,16 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
@@ -139,12 +147,18 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -156,16 +170,24 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -475,148 +497,155 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C12"/>
+  <x:dimension ref="A1:C1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 A2:A2"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="20.777344" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="13.21875" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="17.664062" style="3" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="C2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="C4" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="C7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="C8" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="3" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="3" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="B10" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="C10" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="3" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="B11" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="C11" s="3" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="3" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="B12" s="3" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="C12" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
